--- a/tecnica_analise/2022/GENESIS-MATRIZ-2022 - onlyInvest.xlsx
+++ b/tecnica_analise/2022/GENESIS-MATRIZ-2022 - onlyInvest.xlsx
@@ -2243,7 +2243,7 @@
   <dimension ref="A1:K86"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B54" workbookViewId="0">
-      <selection activeCell="F72" sqref="F72"/>
+      <selection activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2321,7 +2321,7 @@
       </c>
       <c r="I2" s="11">
         <f>H2-D$73</f>
-        <v>-17340.855</v>
+        <v>-24772.649999999998</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>11</v>
@@ -2392,7 +2392,7 @@
       </c>
       <c r="I4" s="11">
         <f t="shared" ref="I4:I57" si="0">H4-D$73</f>
-        <v>-17340.855</v>
+        <v>-24772.649999999998</v>
       </c>
       <c r="J4" s="12" t="s">
         <v>11</v>
@@ -2425,11 +2425,11 @@
       </c>
       <c r="H5" s="11">
         <f t="shared" ref="H5:H56" si="1">C5*D$73</f>
-        <v>34681.71</v>
+        <v>49545.299999999996</v>
       </c>
       <c r="I5" s="11">
         <f t="shared" si="0"/>
-        <v>17340.855</v>
+        <v>24772.649999999998</v>
       </c>
       <c r="J5" s="12" t="s">
         <v>42</v>
@@ -2495,11 +2495,11 @@
       <c r="G7" s="10"/>
       <c r="H7" s="11">
         <f t="shared" si="1"/>
-        <v>33814.667249999999</v>
+        <v>48306.667499999996</v>
       </c>
       <c r="I7" s="11">
         <f t="shared" si="0"/>
-        <v>16473.812249999999</v>
+        <v>23534.017499999998</v>
       </c>
       <c r="J7" s="12" t="s">
         <v>77</v>
@@ -2596,11 +2596,11 @@
       <c r="G10" s="3"/>
       <c r="H10" s="11">
         <f t="shared" si="1"/>
-        <v>33988.075799999999</v>
+        <v>48554.393999999993</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" si="0"/>
-        <v>16647.220799999999</v>
+        <v>23781.743999999995</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>78</v>
@@ -2631,11 +2631,11 @@
       <c r="G11" s="3"/>
       <c r="H11" s="11">
         <f t="shared" si="1"/>
-        <v>31213.539000000001</v>
+        <v>44590.77</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" si="0"/>
-        <v>13872.684000000001</v>
+        <v>19818.12</v>
       </c>
       <c r="J11" s="3" t="s">
         <v>77</v>
@@ -2666,11 +2666,11 @@
       <c r="G12" s="3"/>
       <c r="H12" s="11">
         <f t="shared" si="1"/>
-        <v>32080.581750000001</v>
+        <v>45829.402499999997</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" si="0"/>
-        <v>14739.726750000002</v>
+        <v>21056.752499999999</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>43</v>
@@ -2704,7 +2704,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" si="0"/>
-        <v>-17340.855</v>
+        <v>-24772.649999999998</v>
       </c>
       <c r="J13" s="3" t="s">
         <v>12</v>
@@ -2735,11 +2735,11 @@
       <c r="G14" s="3"/>
       <c r="H14" s="11">
         <f t="shared" si="1"/>
-        <v>31213.539000000001</v>
+        <v>44590.77</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" si="0"/>
-        <v>13872.684000000001</v>
+        <v>19818.12</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>77</v>
@@ -2773,7 +2773,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" si="0"/>
-        <v>-17340.855</v>
+        <v>-24772.649999999998</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>74</v>
@@ -2804,11 +2804,11 @@
       <c r="G16" s="10"/>
       <c r="H16" s="11">
         <f t="shared" si="1"/>
-        <v>31213.539000000001</v>
+        <v>44590.77</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" si="0"/>
-        <v>13872.684000000001</v>
+        <v>19818.12</v>
       </c>
       <c r="J16" s="12" t="s">
         <v>77</v>
@@ -2839,11 +2839,11 @@
       <c r="G17" s="13"/>
       <c r="H17" s="11">
         <f t="shared" si="1"/>
-        <v>29479.4535</v>
+        <v>42113.504999999997</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" si="0"/>
-        <v>12138.5985</v>
+        <v>17340.855</v>
       </c>
       <c r="J17" s="12" t="s">
         <v>77</v>
@@ -2877,7 +2877,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" si="0"/>
-        <v>-17340.855</v>
+        <v>-24772.649999999998</v>
       </c>
       <c r="J18" s="12" t="s">
         <v>12</v>
@@ -2908,11 +2908,11 @@
       <c r="G19" s="3"/>
       <c r="H19" s="11">
         <f t="shared" si="1"/>
-        <v>33814.667249999999</v>
+        <v>48306.667499999996</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" si="0"/>
-        <v>16473.812249999999</v>
+        <v>23534.017499999998</v>
       </c>
       <c r="J19" s="3" t="s">
         <v>10</v>
@@ -2943,11 +2943,11 @@
       <c r="G20" s="3"/>
       <c r="H20" s="11">
         <f t="shared" si="1"/>
-        <v>30519.9048</v>
+        <v>43599.863999999994</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" si="0"/>
-        <v>13179.049800000001</v>
+        <v>18827.213999999996</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>74</v>
@@ -2978,11 +2978,11 @@
       <c r="G21" s="3"/>
       <c r="H21" s="11">
         <f t="shared" si="1"/>
-        <v>24277.196999999996</v>
+        <v>34681.709999999992</v>
       </c>
       <c r="I21" s="11">
         <f t="shared" si="0"/>
-        <v>6936.3419999999969</v>
+        <v>9909.059999999994</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>74</v>
@@ -3013,11 +3013,11 @@
       <c r="G22" s="3"/>
       <c r="H22" s="11">
         <f t="shared" si="1"/>
-        <v>29999.67915</v>
+        <v>42856.684499999996</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" si="0"/>
-        <v>12658.82415</v>
+        <v>18084.034499999998</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>41</v>
@@ -3048,11 +3048,11 @@
       <c r="G23" s="3"/>
       <c r="H23" s="11">
         <f t="shared" si="1"/>
-        <v>34681.71</v>
+        <v>49545.299999999996</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" si="0"/>
-        <v>17340.855</v>
+        <v>24772.649999999998</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>12</v>
@@ -3083,11 +3083,11 @@
       <c r="G24" s="3"/>
       <c r="H24" s="11">
         <f t="shared" si="1"/>
-        <v>34681.71</v>
+        <v>49545.299999999996</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" si="0"/>
-        <v>17340.855</v>
+        <v>24772.649999999998</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>40</v>
@@ -3118,11 +3118,11 @@
       <c r="G25" s="10"/>
       <c r="H25" s="11">
         <f t="shared" si="1"/>
-        <v>34681.71</v>
+        <v>49545.299999999996</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" si="0"/>
-        <v>17340.855</v>
+        <v>24772.649999999998</v>
       </c>
       <c r="J25" s="12" t="s">
         <v>12</v>
@@ -3186,11 +3186,11 @@
       <c r="G27" s="3"/>
       <c r="H27" s="11">
         <f t="shared" si="1"/>
-        <v>34681.71</v>
+        <v>49545.299999999996</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" si="0"/>
-        <v>17340.855</v>
+        <v>24772.649999999998</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>12</v>
@@ -3224,7 +3224,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" si="0"/>
-        <v>-17340.855</v>
+        <v>-24772.649999999998</v>
       </c>
       <c r="J28" s="3" t="s">
         <v>77</v>
@@ -3258,7 +3258,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" si="0"/>
-        <v>-17340.855</v>
+        <v>-24772.649999999998</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>11</v>
@@ -3292,7 +3292,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" si="0"/>
-        <v>-17340.855</v>
+        <v>-24772.649999999998</v>
       </c>
       <c r="J30" s="12" t="s">
         <v>41</v>
@@ -3389,11 +3389,11 @@
       <c r="G33" s="3"/>
       <c r="H33" s="11">
         <f t="shared" si="1"/>
-        <v>33814.667249999999</v>
+        <v>48306.667499999996</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" si="0"/>
-        <v>16473.812249999999</v>
+        <v>23534.017499999998</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>76</v>
@@ -3460,7 +3460,7 @@
       </c>
       <c r="I35" s="11">
         <f t="shared" si="0"/>
-        <v>-17340.855</v>
+        <v>-24772.649999999998</v>
       </c>
       <c r="J35" s="12" t="s">
         <v>77</v>
@@ -3491,11 +3491,11 @@
       <c r="G36" s="10"/>
       <c r="H36" s="11">
         <f t="shared" si="1"/>
-        <v>34681.71</v>
+        <v>49545.299999999996</v>
       </c>
       <c r="I36" s="11">
         <f t="shared" si="0"/>
-        <v>17340.855</v>
+        <v>24772.649999999998</v>
       </c>
       <c r="J36" s="12" t="s">
         <v>12</v>
@@ -3526,11 +3526,11 @@
       <c r="G37" s="13"/>
       <c r="H37" s="11">
         <f t="shared" si="1"/>
-        <v>33988.075799999999</v>
+        <v>48554.393999999993</v>
       </c>
       <c r="I37" s="11">
         <f t="shared" si="0"/>
-        <v>16647.220799999999</v>
+        <v>23781.743999999995</v>
       </c>
       <c r="J37" s="12" t="s">
         <v>75</v>
@@ -3561,11 +3561,11 @@
       <c r="G38" s="3"/>
       <c r="H38" s="11">
         <f t="shared" si="1"/>
-        <v>29479.4535</v>
+        <v>42113.504999999997</v>
       </c>
       <c r="I38" s="11">
         <f t="shared" si="0"/>
-        <v>12138.5985</v>
+        <v>17340.855</v>
       </c>
       <c r="J38" s="3" t="s">
         <v>77</v>
@@ -3596,11 +3596,11 @@
       <c r="G39" s="3"/>
       <c r="H39" s="11">
         <f t="shared" si="1"/>
-        <v>26878.325250000002</v>
+        <v>38397.607499999998</v>
       </c>
       <c r="I39" s="11">
         <f t="shared" si="0"/>
-        <v>9537.4702500000021</v>
+        <v>13624.9575</v>
       </c>
       <c r="J39" s="3" t="s">
         <v>77</v>
@@ -3631,11 +3631,11 @@
       <c r="G40" s="3"/>
       <c r="H40" s="11">
         <f t="shared" si="1"/>
-        <v>34681.71</v>
+        <v>49545.299999999996</v>
       </c>
       <c r="I40" s="11">
         <f t="shared" si="0"/>
-        <v>17340.855</v>
+        <v>24772.649999999998</v>
       </c>
       <c r="J40" s="3" t="s">
         <v>12</v>
@@ -3669,7 +3669,7 @@
       </c>
       <c r="I41" s="11">
         <f t="shared" si="0"/>
-        <v>-17340.855</v>
+        <v>-24772.649999999998</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>41</v>
@@ -3733,11 +3733,11 @@
       <c r="G43" s="30"/>
       <c r="H43" s="11">
         <f t="shared" si="1"/>
-        <v>33121.033049999998</v>
+        <v>47315.761499999993</v>
       </c>
       <c r="I43" s="11">
         <f t="shared" si="0"/>
-        <v>15780.178049999999</v>
+        <v>22543.111499999995</v>
       </c>
       <c r="J43" s="12" t="s">
         <v>76</v>
@@ -3771,7 +3771,7 @@
       </c>
       <c r="I44" s="11">
         <f t="shared" si="0"/>
-        <v>-17340.855</v>
+        <v>-24772.649999999998</v>
       </c>
       <c r="J44" s="12" t="s">
         <v>40</v>
@@ -3802,11 +3802,11 @@
       <c r="G45" s="13"/>
       <c r="H45" s="11">
         <f t="shared" si="1"/>
-        <v>32947.624499999998</v>
+        <v>47068.034999999996</v>
       </c>
       <c r="I45" s="11">
         <f t="shared" si="0"/>
-        <v>15606.769499999999</v>
+        <v>22295.384999999998</v>
       </c>
       <c r="J45" s="12" t="s">
         <v>113</v>
@@ -3837,11 +3837,11 @@
       <c r="G46" s="3"/>
       <c r="H46" s="11">
         <f t="shared" si="1"/>
-        <v>34681.71</v>
+        <v>49545.299999999996</v>
       </c>
       <c r="I46" s="11">
         <f t="shared" si="0"/>
-        <v>17340.855</v>
+        <v>24772.649999999998</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>12</v>
@@ -3872,11 +3872,11 @@
       <c r="G47" s="30"/>
       <c r="H47" s="11">
         <f t="shared" si="1"/>
-        <v>32080.581750000001</v>
+        <v>45829.402499999997</v>
       </c>
       <c r="I47" s="11">
         <f t="shared" si="0"/>
-        <v>14739.726750000002</v>
+        <v>21056.752499999999</v>
       </c>
       <c r="J47" s="12" t="s">
         <v>73</v>
@@ -3910,7 +3910,7 @@
       </c>
       <c r="I48" s="11">
         <f t="shared" si="0"/>
-        <v>-17340.855</v>
+        <v>-24772.649999999998</v>
       </c>
       <c r="J48" s="12" t="s">
         <v>125</v>
@@ -3944,7 +3944,7 @@
       </c>
       <c r="I49" s="11">
         <f t="shared" si="0"/>
-        <v>-17340.855</v>
+        <v>-24772.649999999998</v>
       </c>
       <c r="J49" s="12" t="s">
         <v>73</v>
@@ -3978,7 +3978,7 @@
       </c>
       <c r="I50" s="11">
         <f t="shared" si="0"/>
-        <v>-17340.855</v>
+        <v>-24772.649999999998</v>
       </c>
       <c r="J50" s="3" t="s">
         <v>126</v>
@@ -4009,11 +4009,11 @@
       <c r="G51" s="3"/>
       <c r="H51" s="11">
         <f t="shared" si="1"/>
-        <v>33121.033049999998</v>
+        <v>47315.761499999993</v>
       </c>
       <c r="I51" s="11">
         <f t="shared" si="0"/>
-        <v>15780.178049999999</v>
+        <v>22543.111499999995</v>
       </c>
       <c r="J51" s="3" t="s">
         <v>73</v>
@@ -4044,11 +4044,11 @@
       <c r="G52" s="30"/>
       <c r="H52" s="11">
         <f t="shared" si="1"/>
-        <v>34681.71</v>
+        <v>49545.299999999996</v>
       </c>
       <c r="I52" s="11">
         <f t="shared" si="0"/>
-        <v>17340.855</v>
+        <v>24772.649999999998</v>
       </c>
       <c r="J52" s="12" t="s">
         <v>12</v>
@@ -4082,7 +4082,7 @@
       </c>
       <c r="I53" s="11">
         <f t="shared" si="0"/>
-        <v>-17340.855</v>
+        <v>-24772.649999999998</v>
       </c>
       <c r="J53" s="12" t="s">
         <v>77</v>
@@ -4113,11 +4113,11 @@
       <c r="G54" s="13"/>
       <c r="H54" s="11">
         <f t="shared" si="1"/>
-        <v>32774.215949999998</v>
+        <v>46820.308499999992</v>
       </c>
       <c r="I54" s="11">
         <f t="shared" si="0"/>
-        <v>15433.360949999998</v>
+        <v>22047.658499999994</v>
       </c>
       <c r="J54" s="12" t="s">
         <v>79</v>
@@ -4148,11 +4148,11 @@
       <c r="G55" s="3"/>
       <c r="H55" s="11">
         <f t="shared" si="1"/>
-        <v>34681.71</v>
+        <v>49545.299999999996</v>
       </c>
       <c r="I55" s="11">
         <f t="shared" si="0"/>
-        <v>17340.855</v>
+        <v>24772.649999999998</v>
       </c>
       <c r="J55" s="3" t="s">
         <v>42</v>
@@ -4183,11 +4183,11 @@
       <c r="G56" s="3"/>
       <c r="H56" s="11">
         <f t="shared" si="1"/>
-        <v>34681.71</v>
+        <v>49545.299999999996</v>
       </c>
       <c r="I56" s="11">
         <f t="shared" si="0"/>
-        <v>17340.855</v>
+        <v>24772.649999999998</v>
       </c>
       <c r="J56" s="3" t="s">
         <v>42</v>
@@ -4221,7 +4221,7 @@
       </c>
       <c r="I57" s="11">
         <f t="shared" si="0"/>
-        <v>-17340.855</v>
+        <v>-24772.649999999998</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>74</v>
@@ -4333,11 +4333,11 @@
       </c>
       <c r="H64" s="48">
         <f>SUMIFS($I$2:$I$57,$K$2:$K$57,G64)</f>
-        <v>27918.776550000006</v>
+        <v>39883.966499999995</v>
       </c>
       <c r="I64" s="37">
         <f>H64/D$71*100</f>
-        <v>5.6350000000000016</v>
+        <v>8.0499999999999989</v>
       </c>
       <c r="J64" s="3"/>
       <c r="K64" s="3"/>
@@ -4362,11 +4362,11 @@
       </c>
       <c r="H65" s="48">
         <f t="shared" ref="H65:H85" si="2">SUMIFS($I$2:$I$57,$K$2:$K$57,G65)</f>
-        <v>61386.626700000008</v>
+        <v>87695.180999999982</v>
       </c>
       <c r="I65" s="37">
         <f t="shared" ref="I65:I85" si="3">H65/D$71*100</f>
-        <v>12.39</v>
+        <v>17.699999999999996</v>
       </c>
       <c r="J65" s="3"/>
       <c r="K65" s="3"/>
@@ -4391,11 +4391,11 @@
       </c>
       <c r="H66" s="48">
         <f t="shared" si="2"/>
-        <v>17340.855</v>
+        <v>24772.649999999998</v>
       </c>
       <c r="I66" s="37">
         <f t="shared" si="3"/>
-        <v>3.4999999999999996</v>
+        <v>5</v>
       </c>
       <c r="J66" s="3"/>
       <c r="K66" s="3"/>
@@ -4449,11 +4449,11 @@
       </c>
       <c r="H68" s="48">
         <f t="shared" si="2"/>
-        <v>36068.978399999993</v>
+        <v>51527.111999999994</v>
       </c>
       <c r="I68" s="37">
         <f t="shared" si="3"/>
-        <v>7.2799999999999994</v>
+        <v>10.399999999999999</v>
       </c>
       <c r="J68" s="3"/>
       <c r="K68" s="3"/>
@@ -4466,7 +4466,7 @@
       <c r="C69" s="3"/>
       <c r="D69" s="23">
         <f>D76/1</f>
-        <v>39.61999999999999</v>
+        <v>56.600000000000009</v>
       </c>
       <c r="E69" s="5"/>
       <c r="F69" s="44">
@@ -4530,11 +4530,11 @@
       </c>
       <c r="H71" s="48">
         <f t="shared" si="2"/>
-        <v>17340.855</v>
+        <v>24772.649999999998</v>
       </c>
       <c r="I71" s="37">
         <f t="shared" si="3"/>
-        <v>3.4999999999999996</v>
+        <v>5</v>
       </c>
       <c r="J71" s="3"/>
       <c r="K71" s="3"/>
@@ -4559,11 +4559,11 @@
       </c>
       <c r="H72" s="48">
         <f t="shared" si="2"/>
-        <v>6242.7078000000001</v>
+        <v>8918.1539999999986</v>
       </c>
       <c r="I72" s="37">
         <f t="shared" si="3"/>
-        <v>1.26</v>
+        <v>1.7999999999999998</v>
       </c>
       <c r="J72" s="3"/>
       <c r="K72" s="3"/>
@@ -4575,8 +4575,8 @@
       </c>
       <c r="C73" s="3"/>
       <c r="D73" s="11">
-        <f>D72*3.5</f>
-        <v>17340.855</v>
+        <f>D72*5</f>
+        <v>24772.649999999998</v>
       </c>
       <c r="E73" s="5"/>
       <c r="F73" s="44">
@@ -4634,7 +4634,7 @@
       <c r="C75" s="3"/>
       <c r="D75" s="11">
         <f>SUM(I2:I58)</f>
-        <v>196298.47859999994</v>
+        <v>280426.39800000004</v>
       </c>
       <c r="E75" s="5"/>
       <c r="F75" s="44">
@@ -4663,7 +4663,7 @@
       <c r="C76" s="3"/>
       <c r="D76" s="3">
         <f>D75/D71*100</f>
-        <v>39.61999999999999</v>
+        <v>56.600000000000009</v>
       </c>
       <c r="E76" s="5"/>
       <c r="F76" s="44">
@@ -4675,11 +4675,11 @@
       </c>
       <c r="H76" s="48">
         <f t="shared" si="2"/>
-        <v>13525.866900000001</v>
+        <v>19322.666999999994</v>
       </c>
       <c r="I76" s="37">
         <f t="shared" si="3"/>
-        <v>2.73</v>
+        <v>3.8999999999999986</v>
       </c>
       <c r="J76" s="3"/>
       <c r="K76" s="3"/>
@@ -4690,7 +4690,7 @@
       <c r="C77" s="3"/>
       <c r="D77" s="11">
         <f>D76/11</f>
-        <v>3.6018181818181811</v>
+        <v>5.1454545454545464</v>
       </c>
       <c r="E77" s="5"/>
       <c r="F77" s="44">
@@ -4702,11 +4702,11 @@
       </c>
       <c r="H77" s="48">
         <f t="shared" si="2"/>
-        <v>51155.522249999995</v>
+        <v>73079.31749999999</v>
       </c>
       <c r="I77" s="37">
         <f t="shared" si="3"/>
-        <v>10.324999999999999</v>
+        <v>14.75</v>
       </c>
       <c r="J77" s="3"/>
       <c r="K77" s="3"/>
@@ -4762,11 +4762,11 @@
       </c>
       <c r="H80" s="48">
         <f t="shared" si="2"/>
-        <v>-17340.855</v>
+        <v>-24772.649999999998</v>
       </c>
       <c r="I80" s="37">
         <f t="shared" si="3"/>
-        <v>-3.4999999999999996</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="81" spans="6:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">

--- a/tecnica_analise/2022/GENESIS-MATRIZ-2022 - onlyInvest.xlsx
+++ b/tecnica_analise/2022/GENESIS-MATRIZ-2022 - onlyInvest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="799"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="799" firstSheet="3" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="25" r:id="rId1"/>
@@ -543,7 +543,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -607,6 +607,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor rgb="FFFCF5E8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor rgb="FFFCF5E8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor rgb="FFFCF5E8"/>
       </patternFill>
     </fill>
@@ -686,7 +704,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -825,11 +843,44 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="93">
+  <dxfs count="94">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCF5E8"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <left style="thick">
+          <color rgb="FFFFFFFF"/>
+        </left>
+        <right style="thick">
+          <color rgb="FFFFFFFF"/>
+        </right>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1461,9 +1512,9 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="none">
+        <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="5" tint="0.39997558519241921"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1525,8 +1576,9 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.39997558519241921"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1591,7 +1643,8 @@
       </font>
       <fill>
         <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.39997558519241921"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1690,19 +1743,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border outline="0">
-        <right style="thick">
-          <color rgb="FFFFFFFF"/>
-        </right>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -1827,24 +1867,24 @@
   </dxfs>
   <tableStyles count="5" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
     <tableStyle name="Equipes-style 10" pivot="0" count="2">
-      <tableStyleElement type="firstRowStripe" dxfId="92"/>
-      <tableStyleElement type="secondRowStripe" dxfId="91"/>
+      <tableStyleElement type="firstRowStripe" dxfId="93"/>
+      <tableStyleElement type="secondRowStripe" dxfId="92"/>
     </tableStyle>
     <tableStyle name="Equipes-style 2" pivot="0" count="2">
-      <tableStyleElement type="firstRowStripe" dxfId="90"/>
-      <tableStyleElement type="secondRowStripe" dxfId="89"/>
+      <tableStyleElement type="firstRowStripe" dxfId="91"/>
+      <tableStyleElement type="secondRowStripe" dxfId="90"/>
     </tableStyle>
     <tableStyle name="Equipes-style 3" pivot="0" count="2">
-      <tableStyleElement type="firstRowStripe" dxfId="88"/>
-      <tableStyleElement type="secondRowStripe" dxfId="87"/>
+      <tableStyleElement type="firstRowStripe" dxfId="89"/>
+      <tableStyleElement type="secondRowStripe" dxfId="88"/>
     </tableStyle>
     <tableStyle name="Equipes-style 4" pivot="0" count="2">
-      <tableStyleElement type="firstRowStripe" dxfId="86"/>
-      <tableStyleElement type="secondRowStripe" dxfId="85"/>
+      <tableStyleElement type="firstRowStripe" dxfId="87"/>
+      <tableStyleElement type="secondRowStripe" dxfId="86"/>
     </tableStyle>
     <tableStyle name="Equipes-style 7" pivot="0" count="2">
-      <tableStyleElement type="firstRowStripe" dxfId="84"/>
-      <tableStyleElement type="secondRowStripe" dxfId="83"/>
+      <tableStyleElement type="firstRowStripe" dxfId="85"/>
+      <tableStyleElement type="secondRowStripe" dxfId="84"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1866,14 +1906,14 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_235" displayName="Table_235" ref="F77:I77" headerRowCount="0">
   <tableColumns count="4">
-    <tableColumn id="1" name="Column1">
+    <tableColumn id="1" name="Column1" dataDxfId="0">
       <calculatedColumnFormula>COUNTIF(K$2:$K$57,G77)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Column2" dataDxfId="78"/>
-    <tableColumn id="3" name="Column3" dataDxfId="77">
+    <tableColumn id="2" name="Column2" dataDxfId="1"/>
+    <tableColumn id="3" name="Column3" dataDxfId="79">
       <calculatedColumnFormula>SUMIFS($I$2:$I$57,$K$2:$K$57,G77)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Column4" dataDxfId="76">
+    <tableColumn id="4" name="Column4" dataDxfId="78">
       <calculatedColumnFormula>H77/D$71*100</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1882,16 +1922,16 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table_336" displayName="Table_336" ref="F78:I78" headerRowCount="0" headerRowDxfId="75" dataDxfId="74" totalsRowDxfId="73">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table_336" displayName="Table_336" ref="F78:I78" headerRowCount="0" headerRowDxfId="77" dataDxfId="76" totalsRowDxfId="75">
   <tableColumns count="4">
-    <tableColumn id="1" name="Column1" dataDxfId="72">
+    <tableColumn id="1" name="Column1" dataDxfId="74">
       <calculatedColumnFormula>COUNTIF(K$2:$K$57,G78)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Column2" dataDxfId="71"/>
-    <tableColumn id="3" name="Column3" dataDxfId="70">
+    <tableColumn id="2" name="Column2" dataDxfId="73"/>
+    <tableColumn id="3" name="Column3" dataDxfId="72">
       <calculatedColumnFormula>SUMIFS($I$2:$I$57,$K$2:$K$57,G78)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Column4" dataDxfId="69">
+    <tableColumn id="4" name="Column4" dataDxfId="71">
       <calculatedColumnFormula>H78/D$71*100</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1905,11 +1945,11 @@
     <tableColumn id="1" name="Column1">
       <calculatedColumnFormula>COUNTIF(K$2:$K$57,G79)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Column2" dataDxfId="68"/>
-    <tableColumn id="3" name="Column3" dataDxfId="67">
+    <tableColumn id="2" name="Column2" dataDxfId="70"/>
+    <tableColumn id="3" name="Column3" dataDxfId="69">
       <calculatedColumnFormula>SUMIFS($I$2:$I$57,$K$2:$K$57,G79)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Column4" dataDxfId="66">
+    <tableColumn id="4" name="Column4" dataDxfId="68">
       <calculatedColumnFormula>H79/D$71*100</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1918,16 +1958,16 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table_740" displayName="Table_740" ref="F80:I80" headerRowCount="0" headerRowDxfId="65" dataDxfId="64" totalsRowDxfId="63">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table_740" displayName="Table_740" ref="F80:I80" headerRowCount="0" headerRowDxfId="67" dataDxfId="66" totalsRowDxfId="65">
   <tableColumns count="4">
-    <tableColumn id="1" name="Column1" dataDxfId="62">
+    <tableColumn id="1" name="Column1" dataDxfId="64">
       <calculatedColumnFormula>COUNTIF(K$2:$K$57,G80)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Column2" dataDxfId="61"/>
-    <tableColumn id="3" name="Column3" dataDxfId="60">
+    <tableColumn id="2" name="Column2" dataDxfId="63"/>
+    <tableColumn id="3" name="Column3" dataDxfId="62">
       <calculatedColumnFormula>SUMIFS($I$2:$I$57,$K$2:$K$57,G80)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Column4" dataDxfId="59">
+    <tableColumn id="4" name="Column4" dataDxfId="61">
       <calculatedColumnFormula>H80/D$71*100</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1936,16 +1976,16 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table_1043" displayName="Table_1043" ref="F81:I81" headerRowCount="0" headerRowDxfId="58" dataDxfId="57" totalsRowDxfId="56">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table_1043" displayName="Table_1043" ref="F81:I81" headerRowCount="0" headerRowDxfId="60" dataDxfId="59" totalsRowDxfId="58">
   <tableColumns count="4">
-    <tableColumn id="1" name="Column1" dataDxfId="55">
+    <tableColumn id="1" name="Column1" dataDxfId="57">
       <calculatedColumnFormula>COUNTIF(K$2:$K$57,G81)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Column2" dataDxfId="54"/>
-    <tableColumn id="3" name="Column3" dataDxfId="53">
+    <tableColumn id="2" name="Column2" dataDxfId="56"/>
+    <tableColumn id="3" name="Column3" dataDxfId="55">
       <calculatedColumnFormula>SUMIFS($I$2:$I$57,$K$2:$K$57,G81)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Column4" dataDxfId="52">
+    <tableColumn id="4" name="Column4" dataDxfId="54">
       <calculatedColumnFormula>H81/D$71*100</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2242,8 +2282,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B54" workbookViewId="0">
-      <selection activeCell="D65" sqref="D65"/>
+    <sheetView topLeftCell="B54" workbookViewId="0">
+      <selection activeCell="I76" sqref="I76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4324,7 +4364,7 @@
         <v>31</v>
       </c>
       <c r="E64" s="5"/>
-      <c r="F64" s="44">
+      <c r="F64" s="52">
         <f>COUNTIF(K$2:$K$57,G64)</f>
         <v>6</v>
       </c>
@@ -4353,7 +4393,7 @@
         <v>65.957446808510639</v>
       </c>
       <c r="E65" s="5"/>
-      <c r="F65" s="44">
+      <c r="F65" s="52">
         <f>COUNTIF(K$2:$K$57,G65)</f>
         <v>4</v>
       </c>
@@ -4440,7 +4480,7 @@
         <v>13.561524163945521</v>
       </c>
       <c r="E68" s="5"/>
-      <c r="F68" s="44">
+      <c r="F68" s="52">
         <f>COUNTIF(K$2:$K$57,G68)</f>
         <v>3</v>
       </c>
@@ -4473,7 +4513,7 @@
         <f>COUNTIF(K$2:$K$57,G69)</f>
         <v>2</v>
       </c>
-      <c r="G69" s="44" t="s">
+      <c r="G69" s="51" t="s">
         <v>84</v>
       </c>
       <c r="H69" s="48">
@@ -4497,7 +4537,7 @@
         <f>COUNTIF(K$2:$K$57,G70)</f>
         <v>0</v>
       </c>
-      <c r="G70" s="44" t="s">
+      <c r="G70" s="51" t="s">
         <v>61</v>
       </c>
       <c r="H70" s="48">
@@ -4554,7 +4594,7 @@
         <f>COUNTIF(K$2:$K$57,G72)</f>
         <v>10</v>
       </c>
-      <c r="G72" s="44" t="s">
+      <c r="G72" s="51" t="s">
         <v>9</v>
       </c>
       <c r="H72" s="48">
@@ -4583,7 +4623,7 @@
         <f>COUNTIF(K$2:$K$57,G73)</f>
         <v>2</v>
       </c>
-      <c r="G73" s="44" t="s">
+      <c r="G73" s="51" t="s">
         <v>118</v>
       </c>
       <c r="H73" s="48">
@@ -4641,7 +4681,7 @@
         <f>COUNTIF(K$2:$K$57,G75)</f>
         <v>3</v>
       </c>
-      <c r="G75" s="49" t="s">
+      <c r="G75" s="50" t="s">
         <v>60</v>
       </c>
       <c r="H75" s="48">
@@ -4670,7 +4710,7 @@
         <f>COUNTIF(K$2:$K$57,G76)</f>
         <v>10</v>
       </c>
-      <c r="G76" s="49" t="s">
+      <c r="G76" s="50" t="s">
         <v>68</v>
       </c>
       <c r="H76" s="48">
@@ -4693,7 +4733,7 @@
         <v>5.1454545454545464</v>
       </c>
       <c r="E77" s="5"/>
-      <c r="F77" s="44">
+      <c r="F77" s="52">
         <f>COUNTIF(K$2:$K$57,G77)</f>
         <v>4</v>
       </c>
@@ -4721,7 +4761,7 @@
         <f>COUNTIF(K$2:$K$57,G78)</f>
         <v>1</v>
       </c>
-      <c r="G78" s="49" t="s">
+      <c r="G78" s="50" t="s">
         <v>80</v>
       </c>
       <c r="H78" s="48">
@@ -4740,7 +4780,7 @@
         <f>COUNTIF(K$2:$K$57,G79)</f>
         <v>1</v>
       </c>
-      <c r="G79" s="49" t="s">
+      <c r="G79" s="50" t="s">
         <v>107</v>
       </c>
       <c r="H79" s="48">
@@ -4757,7 +4797,7 @@
         <f>COUNTIF(K$2:$K$57,G80)</f>
         <v>1</v>
       </c>
-      <c r="G80" s="49" t="s">
+      <c r="G80" s="50" t="s">
         <v>82</v>
       </c>
       <c r="H80" s="48">
@@ -4847,18 +4887,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="I2:I57">
-    <cfRule type="cellIs" dxfId="82" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="83" priority="19" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="82" priority="20" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H64:H85">
-    <cfRule type="cellIs" dxfId="80" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="81" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="80" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4881,7 +4921,7 @@
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:K6"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5434,21 +5474,21 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F12:G26">
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="4" operator="lessThan">
       <formula>-240.63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I8">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5460,8 +5500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:K7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6037,21 +6077,21 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F12:G26">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="lessThan">
       <formula>-240.63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I8">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7094,29 +7134,29 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F14:G44">
-    <cfRule type="cellIs" dxfId="51" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="53" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="52" priority="4" operator="lessThan">
       <formula>-240.63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="51" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I9">
-    <cfRule type="cellIs" dxfId="48" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="50" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="49" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2">
-    <cfRule type="cellIs" dxfId="46" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="48" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="47" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7958,21 +7998,21 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F11:G41">
-    <cfRule type="cellIs" dxfId="44" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="46" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="45" priority="4" operator="lessThan">
       <formula>-240.63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="44" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I6">
-    <cfRule type="cellIs" dxfId="41" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="43" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="42" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7985,8 +8025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:K10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8903,21 +8943,21 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F17:G41">
-    <cfRule type="cellIs" dxfId="39" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="41" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="40" priority="4" operator="lessThan">
       <formula>-240.63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="39" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I10">
-    <cfRule type="cellIs" dxfId="36" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="38" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="37" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8931,7 +8971,7 @@
   <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9701,21 +9741,21 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F17:G31">
-    <cfRule type="cellIs" dxfId="34" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="36" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="4" operator="lessThan">
       <formula>-240.63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="34" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I10">
-    <cfRule type="cellIs" dxfId="31" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="32" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10336,21 +10376,21 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F14:G28">
-    <cfRule type="cellIs" dxfId="29" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="31" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="4" operator="lessThan">
       <formula>-240.63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="29" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I6">
-    <cfRule type="cellIs" dxfId="26" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="27" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10362,8 +10402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K6" sqref="A2:K6"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11053,21 +11093,21 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F20:G34">
-    <cfRule type="cellIs" dxfId="24" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="26" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="4" operator="lessThan">
       <formula>-240.63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="24" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I9">
-    <cfRule type="cellIs" dxfId="21" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="22" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11080,7 +11120,7 @@
   <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="A2:K9"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11803,21 +11843,21 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F20:G34">
-    <cfRule type="cellIs" dxfId="19" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="21" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="4" operator="lessThan">
       <formula>-240.63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="19" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I9">
-    <cfRule type="cellIs" dxfId="16" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="17" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11830,8 +11870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="K5" sqref="A2:K5"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12468,21 +12508,21 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F20:G34">
-    <cfRule type="cellIs" dxfId="14" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="4" operator="lessThan">
       <formula>-240.63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="14" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I9">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/tecnica_analise/2022/GENESIS-MATRIZ-2022 - onlyInvest.xlsx
+++ b/tecnica_analise/2022/GENESIS-MATRIZ-2022 - onlyInvest.xlsx
@@ -857,30 +857,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="94">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFCF5E8"/>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border outline="0">
-        <left style="thick">
-          <color rgb="FFFFFFFF"/>
-        </left>
-        <right style="thick">
-          <color rgb="FFFFFFFF"/>
-        </right>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1745,6 +1721,30 @@
       <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <left style="thick">
+          <color rgb="FFFFFFFF"/>
+        </left>
+        <right style="thick">
+          <color rgb="FFFFFFFF"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCF5E8"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1906,14 +1906,14 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_235" displayName="Table_235" ref="F77:I77" headerRowCount="0">
   <tableColumns count="4">
-    <tableColumn id="1" name="Column1" dataDxfId="0">
+    <tableColumn id="1" name="Column1" dataDxfId="79">
       <calculatedColumnFormula>COUNTIF(K$2:$K$57,G77)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Column2" dataDxfId="1"/>
-    <tableColumn id="3" name="Column3" dataDxfId="79">
+    <tableColumn id="2" name="Column2" dataDxfId="78"/>
+    <tableColumn id="3" name="Column3" dataDxfId="77">
       <calculatedColumnFormula>SUMIFS($I$2:$I$57,$K$2:$K$57,G77)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Column4" dataDxfId="78">
+    <tableColumn id="4" name="Column4" dataDxfId="76">
       <calculatedColumnFormula>H77/D$71*100</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1922,16 +1922,16 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table_336" displayName="Table_336" ref="F78:I78" headerRowCount="0" headerRowDxfId="77" dataDxfId="76" totalsRowDxfId="75">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table_336" displayName="Table_336" ref="F78:I78" headerRowCount="0" headerRowDxfId="75" dataDxfId="74" totalsRowDxfId="73">
   <tableColumns count="4">
-    <tableColumn id="1" name="Column1" dataDxfId="74">
+    <tableColumn id="1" name="Column1" dataDxfId="72">
       <calculatedColumnFormula>COUNTIF(K$2:$K$57,G78)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Column2" dataDxfId="73"/>
-    <tableColumn id="3" name="Column3" dataDxfId="72">
+    <tableColumn id="2" name="Column2" dataDxfId="71"/>
+    <tableColumn id="3" name="Column3" dataDxfId="70">
       <calculatedColumnFormula>SUMIFS($I$2:$I$57,$K$2:$K$57,G78)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Column4" dataDxfId="71">
+    <tableColumn id="4" name="Column4" dataDxfId="69">
       <calculatedColumnFormula>H78/D$71*100</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1945,11 +1945,11 @@
     <tableColumn id="1" name="Column1">
       <calculatedColumnFormula>COUNTIF(K$2:$K$57,G79)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Column2" dataDxfId="70"/>
-    <tableColumn id="3" name="Column3" dataDxfId="69">
+    <tableColumn id="2" name="Column2" dataDxfId="68"/>
+    <tableColumn id="3" name="Column3" dataDxfId="67">
       <calculatedColumnFormula>SUMIFS($I$2:$I$57,$K$2:$K$57,G79)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Column4" dataDxfId="68">
+    <tableColumn id="4" name="Column4" dataDxfId="66">
       <calculatedColumnFormula>H79/D$71*100</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1958,16 +1958,16 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table_740" displayName="Table_740" ref="F80:I80" headerRowCount="0" headerRowDxfId="67" dataDxfId="66" totalsRowDxfId="65">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table_740" displayName="Table_740" ref="F80:I80" headerRowCount="0" headerRowDxfId="65" dataDxfId="64" totalsRowDxfId="63">
   <tableColumns count="4">
-    <tableColumn id="1" name="Column1" dataDxfId="64">
+    <tableColumn id="1" name="Column1" dataDxfId="62">
       <calculatedColumnFormula>COUNTIF(K$2:$K$57,G80)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Column2" dataDxfId="63"/>
-    <tableColumn id="3" name="Column3" dataDxfId="62">
+    <tableColumn id="2" name="Column2" dataDxfId="61"/>
+    <tableColumn id="3" name="Column3" dataDxfId="60">
       <calculatedColumnFormula>SUMIFS($I$2:$I$57,$K$2:$K$57,G80)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Column4" dataDxfId="61">
+    <tableColumn id="4" name="Column4" dataDxfId="59">
       <calculatedColumnFormula>H80/D$71*100</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1976,16 +1976,16 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table_1043" displayName="Table_1043" ref="F81:I81" headerRowCount="0" headerRowDxfId="60" dataDxfId="59" totalsRowDxfId="58">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table_1043" displayName="Table_1043" ref="F81:I81" headerRowCount="0" headerRowDxfId="58" dataDxfId="57" totalsRowDxfId="56">
   <tableColumns count="4">
-    <tableColumn id="1" name="Column1" dataDxfId="57">
+    <tableColumn id="1" name="Column1" dataDxfId="55">
       <calculatedColumnFormula>COUNTIF(K$2:$K$57,G81)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Column2" dataDxfId="56"/>
-    <tableColumn id="3" name="Column3" dataDxfId="55">
+    <tableColumn id="2" name="Column2" dataDxfId="54"/>
+    <tableColumn id="3" name="Column3" dataDxfId="53">
       <calculatedColumnFormula>SUMIFS($I$2:$I$57,$K$2:$K$57,G81)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Column4" dataDxfId="54">
+    <tableColumn id="4" name="Column4" dataDxfId="52">
       <calculatedColumnFormula>H81/D$71*100</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2283,7 +2283,7 @@
   <dimension ref="A1:K86"/>
   <sheetViews>
     <sheetView topLeftCell="B54" workbookViewId="0">
-      <selection activeCell="I76" sqref="I76"/>
+      <selection activeCell="G64" sqref="G64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4920,8 +4920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3:K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5474,21 +5474,21 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F12:G26">
-    <cfRule type="cellIs" dxfId="11" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="lessThan">
       <formula>-240.63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I8">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5500,8 +5500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6077,21 +6077,21 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F12:G26">
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="lessThan">
       <formula>-240.63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I8">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7134,29 +7134,29 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F14:G44">
-    <cfRule type="cellIs" dxfId="53" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="51" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="50" priority="4" operator="lessThan">
       <formula>-240.63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="49" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I9">
-    <cfRule type="cellIs" dxfId="50" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="48" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="47" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2">
-    <cfRule type="cellIs" dxfId="48" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="46" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="45" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7998,21 +7998,21 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F11:G41">
-    <cfRule type="cellIs" dxfId="46" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="44" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="43" priority="4" operator="lessThan">
       <formula>-240.63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="42" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I6">
-    <cfRule type="cellIs" dxfId="43" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="41" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="40" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8025,8 +8025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8943,21 +8943,21 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F17:G41">
-    <cfRule type="cellIs" dxfId="41" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="39" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="38" priority="4" operator="lessThan">
       <formula>-240.63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="37" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I10">
-    <cfRule type="cellIs" dxfId="38" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="35" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8970,8 +8970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView topLeftCell="C6" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9741,21 +9741,21 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F17:G31">
-    <cfRule type="cellIs" dxfId="36" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="34" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="4" operator="lessThan">
       <formula>-240.63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="32" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I10">
-    <cfRule type="cellIs" dxfId="33" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="31" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="30" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9769,7 +9769,7 @@
   <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K6" sqref="A2:K6"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10376,21 +10376,21 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F14:G28">
-    <cfRule type="cellIs" dxfId="31" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="29" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="4" operator="lessThan">
       <formula>-240.63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="27" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I6">
-    <cfRule type="cellIs" dxfId="28" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="25" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10402,8 +10402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView topLeftCell="C2" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11093,21 +11093,21 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F20:G34">
-    <cfRule type="cellIs" dxfId="26" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="24" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="4" operator="lessThan">
       <formula>-240.63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="22" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I9">
-    <cfRule type="cellIs" dxfId="23" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="20" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11119,8 +11119,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11843,21 +11843,21 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F20:G34">
-    <cfRule type="cellIs" dxfId="21" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="19" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="4" operator="lessThan">
       <formula>-240.63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="17" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I9">
-    <cfRule type="cellIs" dxfId="18" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11870,8 +11870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12508,21 +12508,21 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F20:G34">
-    <cfRule type="cellIs" dxfId="16" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="14" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="4" operator="lessThan">
       <formula>-240.63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I9">
-    <cfRule type="cellIs" dxfId="13" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/tecnica_analise/2022/GENESIS-MATRIZ-2022 - onlyInvest.xlsx
+++ b/tecnica_analise/2022/GENESIS-MATRIZ-2022 - onlyInvest.xlsx
@@ -4,27 +4,28 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="799" firstSheet="3" activeTab="10"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="799"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="25" r:id="rId1"/>
-    <sheet name="fevereiroInvest" sheetId="3" r:id="rId2"/>
-    <sheet name="marcoInvest" sheetId="4" r:id="rId3"/>
-    <sheet name="abrilInvest" sheetId="7" r:id="rId4"/>
-    <sheet name="maioInvest" sheetId="8" r:id="rId5"/>
-    <sheet name="juhoInvest" sheetId="15" r:id="rId6"/>
-    <sheet name="julhoInvest" sheetId="14" r:id="rId7"/>
-    <sheet name="angostoInvest" sheetId="20" r:id="rId8"/>
-    <sheet name="setembroInvest" sheetId="21" r:id="rId9"/>
-    <sheet name="outubroInvest" sheetId="23" r:id="rId10"/>
-    <sheet name="novembroInvest" sheetId="24" r:id="rId11"/>
+    <sheet name="newall" sheetId="26" r:id="rId2"/>
+    <sheet name="fevereiroInvest" sheetId="3" r:id="rId3"/>
+    <sheet name="marcoInvest" sheetId="4" r:id="rId4"/>
+    <sheet name="abrilInvest" sheetId="7" r:id="rId5"/>
+    <sheet name="maioInvest" sheetId="8" r:id="rId6"/>
+    <sheet name="juhoInvest" sheetId="15" r:id="rId7"/>
+    <sheet name="julhoInvest" sheetId="14" r:id="rId8"/>
+    <sheet name="angostoInvest" sheetId="20" r:id="rId9"/>
+    <sheet name="setembroInvest" sheetId="21" r:id="rId10"/>
+    <sheet name="outubroInvest" sheetId="23" r:id="rId11"/>
+    <sheet name="novembroInvest" sheetId="24" r:id="rId12"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="132">
   <si>
     <t>DATA</t>
   </si>
@@ -543,7 +544,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -628,6 +629,24 @@
         <bgColor rgb="FFFCF5E8"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="6">
     <border>
@@ -704,7 +723,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -852,11 +871,29 @@
     <xf numFmtId="0" fontId="14" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="94">
+  <dxfs count="126">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1379,6 +1416,86 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1746,41 +1863,368 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border outline="0">
+        <right style="thick">
+          <color rgb="FFFFFFFF"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor theme="5" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39997558519241921"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <right style="thick">
+          <color rgb="FFFFFFFF"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+          <bgColor theme="5" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39997558519241921"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    </dxf>
+    <dxf>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <right style="thick">
+          <color rgb="FFFFFFFF"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <right style="thick">
+          <color rgb="FFFFFFFF"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor theme="5" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <left style="thick">
+          <color rgb="FFFFFFFF"/>
+        </left>
+        <right style="thick">
+          <color rgb="FFFFFFFF"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCF5E8"/>
+          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1867,24 +2311,24 @@
   </dxfs>
   <tableStyles count="5" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
     <tableStyle name="Equipes-style 10" pivot="0" count="2">
-      <tableStyleElement type="firstRowStripe" dxfId="93"/>
-      <tableStyleElement type="secondRowStripe" dxfId="92"/>
+      <tableStyleElement type="firstRowStripe" dxfId="125"/>
+      <tableStyleElement type="secondRowStripe" dxfId="124"/>
     </tableStyle>
     <tableStyle name="Equipes-style 2" pivot="0" count="2">
-      <tableStyleElement type="firstRowStripe" dxfId="91"/>
-      <tableStyleElement type="secondRowStripe" dxfId="90"/>
+      <tableStyleElement type="firstRowStripe" dxfId="123"/>
+      <tableStyleElement type="secondRowStripe" dxfId="122"/>
     </tableStyle>
     <tableStyle name="Equipes-style 3" pivot="0" count="2">
-      <tableStyleElement type="firstRowStripe" dxfId="89"/>
-      <tableStyleElement type="secondRowStripe" dxfId="88"/>
+      <tableStyleElement type="firstRowStripe" dxfId="121"/>
+      <tableStyleElement type="secondRowStripe" dxfId="120"/>
     </tableStyle>
     <tableStyle name="Equipes-style 4" pivot="0" count="2">
-      <tableStyleElement type="firstRowStripe" dxfId="87"/>
-      <tableStyleElement type="secondRowStripe" dxfId="86"/>
+      <tableStyleElement type="firstRowStripe" dxfId="119"/>
+      <tableStyleElement type="secondRowStripe" dxfId="118"/>
     </tableStyle>
     <tableStyle name="Equipes-style 7" pivot="0" count="2">
-      <tableStyleElement type="firstRowStripe" dxfId="85"/>
-      <tableStyleElement type="secondRowStripe" dxfId="84"/>
+      <tableStyleElement type="firstRowStripe" dxfId="117"/>
+      <tableStyleElement type="secondRowStripe" dxfId="116"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1906,14 +2350,14 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_235" displayName="Table_235" ref="F77:I77" headerRowCount="0">
   <tableColumns count="4">
-    <tableColumn id="1" name="Column1" dataDxfId="79">
+    <tableColumn id="1" name="Column1" dataDxfId="115">
       <calculatedColumnFormula>COUNTIF(K$2:$K$57,G77)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Column2" dataDxfId="78"/>
-    <tableColumn id="3" name="Column3" dataDxfId="77">
+    <tableColumn id="2" name="Column2" dataDxfId="114"/>
+    <tableColumn id="3" name="Column3" dataDxfId="113">
       <calculatedColumnFormula>SUMIFS($I$2:$I$57,$K$2:$K$57,G77)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Column4" dataDxfId="76">
+    <tableColumn id="4" name="Column4" dataDxfId="112">
       <calculatedColumnFormula>H77/D$71*100</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1921,17 +2365,35 @@
 </table>
 </file>
 
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table_104311" displayName="Table_104311" ref="F37:I37" headerRowCount="0" headerRowDxfId="66" dataDxfId="65" totalsRowDxfId="64">
+  <tableColumns count="4">
+    <tableColumn id="1" name="Column1" dataDxfId="63">
+      <calculatedColumnFormula>COUNTIF(K$2:$K$13,G37)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" name="Column2" dataDxfId="62"/>
+    <tableColumn id="3" name="Column3" dataDxfId="61">
+      <calculatedColumnFormula>SUMIFS($I$2:$I$13,$K$2:$K$13,G37)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" name="Column4" dataDxfId="60">
+      <calculatedColumnFormula>H37/D$27*100</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="Equipes-style 10" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table_336" displayName="Table_336" ref="F78:I78" headerRowCount="0" headerRowDxfId="75" dataDxfId="74" totalsRowDxfId="73">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table_336" displayName="Table_336" ref="F78:I78" headerRowCount="0" headerRowDxfId="111" dataDxfId="110" totalsRowDxfId="109">
   <tableColumns count="4">
-    <tableColumn id="1" name="Column1" dataDxfId="72">
+    <tableColumn id="1" name="Column1" dataDxfId="108">
       <calculatedColumnFormula>COUNTIF(K$2:$K$57,G78)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Column2" dataDxfId="71"/>
-    <tableColumn id="3" name="Column3" dataDxfId="70">
+    <tableColumn id="2" name="Column2" dataDxfId="107"/>
+    <tableColumn id="3" name="Column3" dataDxfId="106">
       <calculatedColumnFormula>SUMIFS($I$2:$I$57,$K$2:$K$57,G78)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Column4" dataDxfId="69">
+    <tableColumn id="4" name="Column4" dataDxfId="105">
       <calculatedColumnFormula>H78/D$71*100</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1945,11 +2407,11 @@
     <tableColumn id="1" name="Column1">
       <calculatedColumnFormula>COUNTIF(K$2:$K$57,G79)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Column2" dataDxfId="68"/>
-    <tableColumn id="3" name="Column3" dataDxfId="67">
+    <tableColumn id="2" name="Column2" dataDxfId="104"/>
+    <tableColumn id="3" name="Column3" dataDxfId="103">
       <calculatedColumnFormula>SUMIFS($I$2:$I$57,$K$2:$K$57,G79)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Column4" dataDxfId="66">
+    <tableColumn id="4" name="Column4" dataDxfId="102">
       <calculatedColumnFormula>H79/D$71*100</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1958,16 +2420,16 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table_740" displayName="Table_740" ref="F80:I80" headerRowCount="0" headerRowDxfId="65" dataDxfId="64" totalsRowDxfId="63">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table_740" displayName="Table_740" ref="F80:I80" headerRowCount="0" headerRowDxfId="101" dataDxfId="100" totalsRowDxfId="99">
   <tableColumns count="4">
-    <tableColumn id="1" name="Column1" dataDxfId="62">
+    <tableColumn id="1" name="Column1" dataDxfId="98">
       <calculatedColumnFormula>COUNTIF(K$2:$K$57,G80)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Column2" dataDxfId="61"/>
-    <tableColumn id="3" name="Column3" dataDxfId="60">
+    <tableColumn id="2" name="Column2" dataDxfId="97"/>
+    <tableColumn id="3" name="Column3" dataDxfId="96">
       <calculatedColumnFormula>SUMIFS($I$2:$I$57,$K$2:$K$57,G80)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Column4" dataDxfId="59">
+    <tableColumn id="4" name="Column4" dataDxfId="95">
       <calculatedColumnFormula>H80/D$71*100</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1976,20 +2438,92 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table_1043" displayName="Table_1043" ref="F81:I81" headerRowCount="0" headerRowDxfId="58" dataDxfId="57" totalsRowDxfId="56">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table_1043" displayName="Table_1043" ref="F81:I81" headerRowCount="0" headerRowDxfId="94" dataDxfId="93" totalsRowDxfId="92">
   <tableColumns count="4">
-    <tableColumn id="1" name="Column1" dataDxfId="55">
+    <tableColumn id="1" name="Column1" dataDxfId="91">
       <calculatedColumnFormula>COUNTIF(K$2:$K$57,G81)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Column2" dataDxfId="54"/>
-    <tableColumn id="3" name="Column3" dataDxfId="53">
+    <tableColumn id="2" name="Column2" dataDxfId="90"/>
+    <tableColumn id="3" name="Column3" dataDxfId="89">
       <calculatedColumnFormula>SUMIFS($I$2:$I$57,$K$2:$K$57,G81)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Column4" dataDxfId="52">
+    <tableColumn id="4" name="Column4" dataDxfId="88">
       <calculatedColumnFormula>H81/D$71*100</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="Equipes-style 10" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table_2357" displayName="Table_2357" ref="F33:I33" headerRowCount="0">
+  <tableColumns count="4">
+    <tableColumn id="1" name="Column1" dataDxfId="87">
+      <calculatedColumnFormula>COUNTIF(K$2:$K$13,G33)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" name="Column2" dataDxfId="86"/>
+    <tableColumn id="3" name="Column3" dataDxfId="85">
+      <calculatedColumnFormula>SUMIFS($I$2:$I$13,$K$2:$K$13,G33)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" name="Column4" dataDxfId="84">
+      <calculatedColumnFormula>H33/D$27*100</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="Equipes-style 2" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table_3368" displayName="Table_3368" ref="F34:I34" headerRowCount="0" headerRowDxfId="83" dataDxfId="82" totalsRowDxfId="81">
+  <tableColumns count="4">
+    <tableColumn id="1" name="Column1" dataDxfId="80">
+      <calculatedColumnFormula>COUNTIF(K$2:$K$13,G34)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" name="Column2" dataDxfId="79"/>
+    <tableColumn id="3" name="Column3" dataDxfId="78">
+      <calculatedColumnFormula>SUMIFS($I$2:$I$13,$K$2:$K$13,G34)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" name="Column4" dataDxfId="77">
+      <calculatedColumnFormula>H34/D$27*100</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="Equipes-style 3" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table_4379" displayName="Table_4379" ref="F35:I35" headerRowCount="0">
+  <tableColumns count="4">
+    <tableColumn id="1" name="Column1">
+      <calculatedColumnFormula>COUNTIF(K$2:$K$13,G35)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" name="Column2" dataDxfId="76"/>
+    <tableColumn id="3" name="Column3" dataDxfId="75">
+      <calculatedColumnFormula>SUMIFS($I$2:$I$13,$K$2:$K$13,G35)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" name="Column4" dataDxfId="74">
+      <calculatedColumnFormula>H35/D$27*100</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="Equipes-style 4" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table_74010" displayName="Table_74010" ref="F36:I36" headerRowCount="0" headerRowDxfId="73" dataDxfId="72" totalsRowDxfId="71">
+  <tableColumns count="4">
+    <tableColumn id="1" name="Column1" dataDxfId="70">
+      <calculatedColumnFormula>COUNTIF(K$2:$K$13,G36)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" name="Column2" dataDxfId="69"/>
+    <tableColumn id="3" name="Column3" dataDxfId="68">
+      <calculatedColumnFormula>SUMIFS($I$2:$I$13,$K$2:$K$13,G36)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" name="Column4" dataDxfId="67">
+      <calculatedColumnFormula>H36/D$27*100</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="Equipes-style 7" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -2282,8 +2816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K86"/>
   <sheetViews>
-    <sheetView topLeftCell="B54" workbookViewId="0">
-      <selection activeCell="G64" sqref="G64"/>
+    <sheetView tabSelected="1" topLeftCell="E25" workbookViewId="0">
+      <selection activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2366,7 +2900,7 @@
       <c r="J2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="54" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2401,7 +2935,7 @@
       <c r="J3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="54" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2437,7 +2971,7 @@
       <c r="J4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="54" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2509,7 +3043,7 @@
       <c r="J6" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="K6" s="54" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2544,7 +3078,7 @@
       <c r="J7" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K7" s="54" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2577,7 +3111,7 @@
       <c r="J8" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="K8" s="54" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2610,7 +3144,7 @@
       <c r="J9" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="K9" s="54" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2680,7 +3214,7 @@
       <c r="J11" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="K11" s="54" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2749,7 +3283,7 @@
       <c r="J13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="K13" s="54" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2818,7 +3352,7 @@
       <c r="J15" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="K15" s="54" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2888,7 +3422,7 @@
       <c r="J17" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="K17" s="2" t="s">
+      <c r="K17" s="54" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2922,7 +3456,7 @@
       <c r="J18" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="K18" s="2" t="s">
+      <c r="K18" s="54" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2992,7 +3526,7 @@
       <c r="J20" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="K20" s="2" t="s">
+      <c r="K20" s="54" t="s">
         <v>68</v>
       </c>
     </row>
@@ -3097,7 +3631,7 @@
       <c r="J23" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K23" s="2" t="s">
+      <c r="K23" s="54" t="s">
         <v>47</v>
       </c>
     </row>
@@ -3132,7 +3666,7 @@
       <c r="J24" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="K24" s="2" t="s">
+      <c r="K24" s="54" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3167,7 +3701,7 @@
       <c r="J25" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="K25" s="2" t="s">
+      <c r="K25" s="54" t="s">
         <v>84</v>
       </c>
     </row>
@@ -3200,7 +3734,7 @@
       <c r="J26" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="K26" s="2" t="s">
+      <c r="K26" s="54" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3235,7 +3769,7 @@
       <c r="J27" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K27" s="2" t="s">
+      <c r="K27" s="54" t="s">
         <v>47</v>
       </c>
     </row>
@@ -3269,7 +3803,7 @@
       <c r="J28" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="K28" s="2" t="s">
+      <c r="K28" s="54" t="s">
         <v>84</v>
       </c>
     </row>
@@ -3303,7 +3837,7 @@
       <c r="J29" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K29" s="2" t="s">
+      <c r="K29" s="54" t="s">
         <v>68</v>
       </c>
     </row>
@@ -3337,7 +3871,7 @@
       <c r="J30" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="K30" s="2" t="s">
+      <c r="K30" s="54" t="s">
         <v>68</v>
       </c>
     </row>
@@ -3403,7 +3937,7 @@
       <c r="J32" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K32" s="2" t="s">
+      <c r="K32" s="54" t="s">
         <v>47</v>
       </c>
     </row>
@@ -3438,7 +3972,7 @@
       <c r="J33" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="K33" s="2" t="s">
+      <c r="K33" s="54" t="s">
         <v>47</v>
       </c>
     </row>
@@ -3471,7 +4005,7 @@
       <c r="J34" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K34" s="2" t="s">
+      <c r="K34" s="54" t="s">
         <v>80</v>
       </c>
     </row>
@@ -3505,7 +4039,7 @@
       <c r="J35" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="K35" s="2" t="s">
+      <c r="K35" s="54" t="s">
         <v>99</v>
       </c>
     </row>
@@ -3575,7 +4109,7 @@
       <c r="J37" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="K37" s="2" t="s">
+      <c r="K37" s="54" t="s">
         <v>68</v>
       </c>
     </row>
@@ -3610,7 +4144,7 @@
       <c r="J38" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="K38" s="2" t="s">
+      <c r="K38" s="54" t="s">
         <v>68</v>
       </c>
     </row>
@@ -3645,7 +4179,7 @@
       <c r="J39" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="K39" s="2" t="s">
+      <c r="K39" s="54" t="s">
         <v>68</v>
       </c>
     </row>
@@ -3680,7 +4214,7 @@
       <c r="J40" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K40" s="2" t="s">
+      <c r="K40" s="54" t="s">
         <v>99</v>
       </c>
     </row>
@@ -3714,7 +4248,7 @@
       <c r="J41" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="K41" s="2" t="s">
+      <c r="K41" s="54" t="s">
         <v>68</v>
       </c>
     </row>
@@ -3747,7 +4281,7 @@
       <c r="J42" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K42" s="2" t="s">
+      <c r="K42" s="54" t="s">
         <v>107</v>
       </c>
     </row>
@@ -3782,7 +4316,7 @@
       <c r="J43" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="K43" s="2" t="s">
+      <c r="K43" s="54" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3816,7 +4350,7 @@
       <c r="J44" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="K44" s="2" t="s">
+      <c r="K44" s="54" t="s">
         <v>68</v>
       </c>
     </row>
@@ -3851,7 +4385,7 @@
       <c r="J45" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="K45" s="2" t="s">
+      <c r="K45" s="54" t="s">
         <v>68</v>
       </c>
     </row>
@@ -3886,7 +4420,7 @@
       <c r="J46" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K46" s="2" t="s">
+      <c r="K46" s="54" t="s">
         <v>99</v>
       </c>
     </row>
@@ -3955,7 +4489,7 @@
       <c r="J48" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="K48" s="2" t="s">
+      <c r="K48" s="54" t="s">
         <v>82</v>
       </c>
     </row>
@@ -3989,7 +4523,7 @@
       <c r="J49" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="K49" s="2" t="s">
+      <c r="K49" s="54" t="s">
         <v>99</v>
       </c>
     </row>
@@ -4009,7 +4543,7 @@
       <c r="E50" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F50" s="20" t="s">
+      <c r="F50" s="58" t="s">
         <v>44</v>
       </c>
       <c r="G50" s="3"/>
@@ -4023,7 +4557,7 @@
       <c r="J50" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="K50" s="2" t="s">
+      <c r="K50" s="57" t="s">
         <v>53</v>
       </c>
     </row>
@@ -4058,7 +4592,7 @@
       <c r="J51" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="K51" s="2" t="s">
+      <c r="K51" s="54" t="s">
         <v>68</v>
       </c>
     </row>
@@ -4078,7 +4612,7 @@
       <c r="E52" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F52" s="13" t="s">
+      <c r="F52" s="55" t="s">
         <v>44</v>
       </c>
       <c r="G52" s="30"/>
@@ -4093,7 +4627,7 @@
       <c r="J52" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="K52" s="2" t="s">
+      <c r="K52" s="54" t="s">
         <v>53</v>
       </c>
     </row>
@@ -4113,7 +4647,7 @@
       <c r="E53" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F53" s="10" t="s">
+      <c r="F53" s="56" t="s">
         <v>44</v>
       </c>
       <c r="G53" s="10"/>
@@ -4127,7 +4661,7 @@
       <c r="J53" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="K53" s="2" t="s">
+      <c r="K53" s="54" t="s">
         <v>53</v>
       </c>
     </row>
@@ -4197,7 +4731,7 @@
       <c r="J55" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="K55" s="2" t="s">
+      <c r="K55" s="54" t="s">
         <v>50</v>
       </c>
     </row>
@@ -4232,7 +4766,7 @@
       <c r="J56" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="K56" s="2" t="s">
+      <c r="K56" s="54" t="s">
         <v>118</v>
       </c>
     </row>
@@ -4266,7 +4800,7 @@
       <c r="J57" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="K57" s="2" t="s">
+      <c r="K57" s="54" t="s">
         <v>118</v>
       </c>
     </row>
@@ -4887,18 +5421,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="I2:I57">
-    <cfRule type="cellIs" dxfId="83" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="59" priority="19" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="58" priority="20" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H64:H85">
-    <cfRule type="cellIs" dxfId="81" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="57" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="56" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4918,10 +5452,674 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K34"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="34.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="117" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>44807</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="14">
+        <v>1.91</v>
+      </c>
+      <c r="D2" s="9">
+        <v>21</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="G2" s="30"/>
+      <c r="H2" s="36">
+        <f>C2*D$30</f>
+        <v>37852.609199999999</v>
+      </c>
+      <c r="I2" s="11">
+        <f>H2-D$30</f>
+        <v>18034.4892</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>44811</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="14">
+        <v>1.95</v>
+      </c>
+      <c r="D3" s="9">
+        <v>24</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="G3" s="10"/>
+      <c r="H3" s="36">
+        <v>0</v>
+      </c>
+      <c r="I3" s="11">
+        <f t="shared" ref="I3:I5" si="0">H3-D$30</f>
+        <v>-19818.12</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>44814</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" s="14">
+        <v>1.9</v>
+      </c>
+      <c r="D4" s="9">
+        <v>22</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="G4" s="13"/>
+      <c r="H4" s="36">
+        <f t="shared" ref="H4:H5" si="1">C4*D$30</f>
+        <v>37654.428</v>
+      </c>
+      <c r="I4" s="11">
+        <f t="shared" si="0"/>
+        <v>17836.308000000001</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>44834</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" s="14">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3">
+        <v>18</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="36">
+        <f t="shared" si="1"/>
+        <v>39636.239999999998</v>
+      </c>
+      <c r="I5" s="11">
+        <f t="shared" si="0"/>
+        <v>19818.12</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="38"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="2"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="2"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="2"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3">
+        <f>COUNT(D2:D9)</f>
+        <v>4</v>
+      </c>
+      <c r="E19" s="5"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="20">
+        <v>1</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="23">
+        <f>D19-D20</f>
+        <v>3</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3">
+        <f>D21/D19*100</f>
+        <v>75</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3">
+        <f>1/D24*100</f>
+        <v>51.546391752577328</v>
+      </c>
+      <c r="E23" s="5"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3">
+        <f>SUM(C2:C9)/COUNT(D2:D9)</f>
+        <v>1.94</v>
+      </c>
+      <c r="E24" s="5"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="23">
+        <f>D22-D23</f>
+        <v>23.453608247422672</v>
+      </c>
+      <c r="E25" s="5"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="23">
+        <f>D33/1</f>
+        <v>7.24</v>
+      </c>
+      <c r="E26" s="5"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+    </row>
+    <row r="28" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="24">
+        <v>495453</v>
+      </c>
+      <c r="E28" s="5"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="11">
+        <f>D28/100</f>
+        <v>4954.53</v>
+      </c>
+      <c r="E29" s="5"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="33"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="11">
+        <f>D29*4</f>
+        <v>19818.12</v>
+      </c>
+      <c r="E30" s="5"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="33"/>
+      <c r="H30" s="33"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" s="3"/>
+      <c r="D31" s="25">
+        <f>D29*7</f>
+        <v>34681.71</v>
+      </c>
+      <c r="E31" s="5"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="33"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="11">
+        <f>SUM(I2:I9)</f>
+        <v>35870.797200000001</v>
+      </c>
+      <c r="E32" s="5"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="33"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="3"/>
+      <c r="B33" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3">
+        <f>D32/D28*100</f>
+        <v>7.24</v>
+      </c>
+      <c r="E33" s="5"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="33"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="F20:G34">
+    <cfRule type="cellIs" dxfId="14" priority="3" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="4" operator="lessThan">
+      <formula>-240.63</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="5" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I9">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3:K4"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5496,12 +6694,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6100,6 +7298,1122 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K42"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="34.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="117" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>44635</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="14">
+        <v>2</v>
+      </c>
+      <c r="D2" s="9">
+        <v>25</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="11">
+        <f>C2*D$29</f>
+        <v>49545.299999999996</v>
+      </c>
+      <c r="I2" s="11">
+        <f>H2-D$29</f>
+        <v>24772.649999999998</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>44669</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="14">
+        <v>1.96</v>
+      </c>
+      <c r="D3" s="3">
+        <v>26</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="11">
+        <f>C3*D$29</f>
+        <v>48554.393999999993</v>
+      </c>
+      <c r="I3" s="11">
+        <f>H3-D$29</f>
+        <v>23781.743999999995</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>44677</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="14">
+        <v>1.85</v>
+      </c>
+      <c r="D4" s="3">
+        <v>20</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="11">
+        <f>C4*D$29</f>
+        <v>45829.402499999997</v>
+      </c>
+      <c r="I4" s="11">
+        <f>H4-D$29</f>
+        <v>21056.752499999999</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>44681</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="14">
+        <v>1.8</v>
+      </c>
+      <c r="D5" s="3">
+        <v>26</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="11">
+        <f>C5*D$29</f>
+        <v>44590.77</v>
+      </c>
+      <c r="I5" s="11">
+        <f>H5-D$29</f>
+        <v>19818.12</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>44683</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="14">
+        <v>1.8</v>
+      </c>
+      <c r="D6" s="9">
+        <v>18</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="G6" s="10"/>
+      <c r="H6" s="11">
+        <f>C6*D$29</f>
+        <v>44590.77</v>
+      </c>
+      <c r="I6" s="11">
+        <f>H6-D$29</f>
+        <v>19818.12</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>44688</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="14">
+        <v>1.95</v>
+      </c>
+      <c r="D7" s="3">
+        <v>24</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="11">
+        <f>C7*D$29</f>
+        <v>48306.667499999996</v>
+      </c>
+      <c r="I7" s="11">
+        <f>H7-D$29</f>
+        <v>23534.017499999998</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>44691</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="14">
+        <v>1.4</v>
+      </c>
+      <c r="D8" s="3">
+        <v>22</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="11">
+        <f>C8*D$29</f>
+        <v>34681.709999999992</v>
+      </c>
+      <c r="I8" s="11">
+        <f>H8-D$29</f>
+        <v>9909.059999999994</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>44702</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="14">
+        <v>1.73</v>
+      </c>
+      <c r="D9" s="3">
+        <v>18</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="11">
+        <f>C9*D$29</f>
+        <v>42856.684499999996</v>
+      </c>
+      <c r="I9" s="11">
+        <f>H9-D$29</f>
+        <v>18084.034499999998</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>44744</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" s="14">
+        <v>2</v>
+      </c>
+      <c r="D10" s="9">
+        <v>24</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="10"/>
+      <c r="H10" s="11">
+        <v>0</v>
+      </c>
+      <c r="I10" s="11">
+        <v>0</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>44786</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" s="14">
+        <v>2</v>
+      </c>
+      <c r="D11" s="9">
+        <v>25</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="10"/>
+      <c r="H11" s="11">
+        <f>C11*D$29</f>
+        <v>49545.299999999996</v>
+      </c>
+      <c r="I11" s="11">
+        <f>H11-D$29</f>
+        <v>24772.649999999998</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>44835</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C12" s="14">
+        <v>1.85</v>
+      </c>
+      <c r="D12" s="9">
+        <v>23</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="G12" s="30"/>
+      <c r="H12" s="11">
+        <f>C12*D$29</f>
+        <v>45829.402499999997</v>
+      </c>
+      <c r="I12" s="11">
+        <f>H12-D$29</f>
+        <v>21056.752499999999</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>44877</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C13" s="14">
+        <v>1.89</v>
+      </c>
+      <c r="D13" s="9">
+        <v>19</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="G13" s="13"/>
+      <c r="H13" s="11">
+        <f>C13*D$29</f>
+        <v>46820.308499999992</v>
+      </c>
+      <c r="I13" s="11">
+        <f>H13-D$29</f>
+        <v>22047.658499999994</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+    </row>
+    <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+    </row>
+    <row r="18" spans="1:11" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3">
+        <f>COUNT(D2:D13)-9</f>
+        <v>3</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="G18" s="40"/>
+      <c r="H18" s="41"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+    </row>
+    <row r="19" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="20">
+        <v>2</v>
+      </c>
+      <c r="E19" s="5"/>
+      <c r="F19" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="G19" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="H19" s="43" t="s">
+        <v>129</v>
+      </c>
+      <c r="I19" s="37" t="s">
+        <v>130</v>
+      </c>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+    </row>
+    <row r="20" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="23">
+        <f>D18-D19</f>
+        <v>1</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="52">
+        <f>COUNTIF(K$2:$K$13,G20)</f>
+        <v>3</v>
+      </c>
+      <c r="G20" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="H20" s="48">
+        <f>SUMIFS($I$2:$I$13,$K$2:$K$13,G20)</f>
+        <v>64656.616499999989</v>
+      </c>
+      <c r="I20" s="37">
+        <f>H20/D$27*100</f>
+        <v>13.049999999999997</v>
+      </c>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+    </row>
+    <row r="21" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3">
+        <f>D20/D18*100</f>
+        <v>33.333333333333329</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="52">
+        <f>COUNTIF(K$2:$K$13,G21)</f>
+        <v>4</v>
+      </c>
+      <c r="G21" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="48">
+        <f>SUMIFS($I$2:$I$13,$K$2:$K$13,G21)</f>
+        <v>87695.180999999982</v>
+      </c>
+      <c r="I21" s="37">
+        <f t="shared" ref="I21:I41" si="0">H21/D$27*100</f>
+        <v>17.699999999999996</v>
+      </c>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+    </row>
+    <row r="22" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3">
+        <f>1/D23*100</f>
+        <v>53.981106612685551</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" s="44">
+        <f>COUNTIF(K$2:$K$13,G22)</f>
+        <v>0</v>
+      </c>
+      <c r="G22" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="H22" s="48">
+        <f>SUMIFS($I$2:$I$13,$K$2:$K$13,G22)</f>
+        <v>0</v>
+      </c>
+      <c r="I22" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+    </row>
+    <row r="23" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3">
+        <f>SUM(C2:C13)/COUNT(D2:D13)</f>
+        <v>1.8525000000000003</v>
+      </c>
+      <c r="E23" s="5"/>
+      <c r="F23" s="44">
+        <f>COUNTIF(K$2:$K$13,G23)</f>
+        <v>0</v>
+      </c>
+      <c r="G23" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="H23" s="48">
+        <f>SUMIFS($I$2:$I$13,$K$2:$K$13,G23)</f>
+        <v>0</v>
+      </c>
+      <c r="I23" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+    </row>
+    <row r="24" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="23">
+        <f>D21-D22</f>
+        <v>-20.647773279352222</v>
+      </c>
+      <c r="E24" s="5"/>
+      <c r="F24" s="52">
+        <f>COUNTIF(K$2:$K$13,G24)</f>
+        <v>3</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H24" s="48">
+        <f>SUMIFS($I$2:$I$13,$K$2:$K$13,G24)</f>
+        <v>51527.111999999994</v>
+      </c>
+      <c r="I24" s="37">
+        <f t="shared" si="0"/>
+        <v>10.399999999999999</v>
+      </c>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+    </row>
+    <row r="25" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="23">
+        <f>D32/1</f>
+        <v>46.15</v>
+      </c>
+      <c r="E25" s="5"/>
+      <c r="F25" s="44">
+        <f>COUNTIF(K$2:$K$13,G25)</f>
+        <v>0</v>
+      </c>
+      <c r="G25" s="51" t="s">
+        <v>84</v>
+      </c>
+      <c r="H25" s="48">
+        <f>SUMIFS($I$2:$I$13,$K$2:$K$13,G25)</f>
+        <v>0</v>
+      </c>
+      <c r="I25" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+    </row>
+    <row r="26" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="44">
+        <f>COUNTIF(K$2:$K$13,G26)</f>
+        <v>0</v>
+      </c>
+      <c r="G26" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="H26" s="48">
+        <f>SUMIFS($I$2:$I$13,$K$2:$K$13,G26)</f>
+        <v>0</v>
+      </c>
+      <c r="I26" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+    </row>
+    <row r="27" spans="1:11" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="24">
+        <v>495453</v>
+      </c>
+      <c r="E27" s="5"/>
+      <c r="F27" s="44">
+        <f>COUNTIF(K$2:$K$13,G27)</f>
+        <v>2</v>
+      </c>
+      <c r="G27" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="H27" s="48">
+        <f>SUMIFS($I$2:$I$13,$K$2:$K$13,G27)</f>
+        <v>24772.649999999998</v>
+      </c>
+      <c r="I27" s="37">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+    </row>
+    <row r="28" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="11">
+        <f>D27/100</f>
+        <v>4954.53</v>
+      </c>
+      <c r="E28" s="5"/>
+      <c r="F28" s="44">
+        <f>COUNTIF(K$2:$K$13,G28)</f>
+        <v>0</v>
+      </c>
+      <c r="G28" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="H28" s="48">
+        <f>SUMIFS($I$2:$I$13,$K$2:$K$13,G28)</f>
+        <v>0</v>
+      </c>
+      <c r="I28" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+    </row>
+    <row r="29" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="11">
+        <f>D28*5</f>
+        <v>24772.649999999998</v>
+      </c>
+      <c r="E29" s="5"/>
+      <c r="F29" s="44">
+        <f>COUNTIF(K$2:$K$13,G29)</f>
+        <v>0</v>
+      </c>
+      <c r="G29" s="51" t="s">
+        <v>118</v>
+      </c>
+      <c r="H29" s="48">
+        <f>SUMIFS($I$2:$I$13,$K$2:$K$13,G29)</f>
+        <v>0</v>
+      </c>
+      <c r="I29" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+    </row>
+    <row r="30" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="25">
+        <f>D28*4</f>
+        <v>19818.12</v>
+      </c>
+      <c r="E30" s="5"/>
+      <c r="F30" s="44">
+        <f>COUNTIF(K$2:$K$13,G30)</f>
+        <v>0</v>
+      </c>
+      <c r="G30" s="47" t="s">
+        <v>131</v>
+      </c>
+      <c r="H30" s="48">
+        <f>SUMIFS($I$2:$I$13,$K$2:$K$13,G30)</f>
+        <v>0</v>
+      </c>
+      <c r="I30" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+    </row>
+    <row r="31" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="3"/>
+      <c r="D31" s="11">
+        <f>SUM(I2:I14)</f>
+        <v>228651.55949999997</v>
+      </c>
+      <c r="E31" s="5"/>
+      <c r="F31" s="44">
+        <f>COUNTIF(K$2:$K$13,G31)</f>
+        <v>0</v>
+      </c>
+      <c r="G31" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="H31" s="48">
+        <f>SUMIFS($I$2:$I$13,$K$2:$K$13,G31)</f>
+        <v>0</v>
+      </c>
+      <c r="I31" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+    </row>
+    <row r="32" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="3"/>
+      <c r="B32" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3">
+        <f>D31/D27*100</f>
+        <v>46.15</v>
+      </c>
+      <c r="E32" s="5"/>
+      <c r="F32" s="44">
+        <f>COUNTIF(K$2:$K$13,G32)</f>
+        <v>0</v>
+      </c>
+      <c r="G32" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="H32" s="48">
+        <f>SUMIFS($I$2:$I$13,$K$2:$K$13,G32)</f>
+        <v>0</v>
+      </c>
+      <c r="I32" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+    </row>
+    <row r="33" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="52">
+        <f>COUNTIF(K$2:$K$13,G33)</f>
+        <v>0</v>
+      </c>
+      <c r="G33" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="H33" s="48">
+        <f>SUMIFS($I$2:$I$13,$K$2:$K$13,G33)</f>
+        <v>0</v>
+      </c>
+      <c r="I33" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+    </row>
+    <row r="34" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="44">
+        <f>COUNTIF(K$2:$K$13,G34)</f>
+        <v>0</v>
+      </c>
+      <c r="G34" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="H34" s="48">
+        <f>SUMIFS($I$2:$I$13,$K$2:$K$13,G34)</f>
+        <v>0</v>
+      </c>
+      <c r="I34" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+    </row>
+    <row r="35" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F35" s="44">
+        <f>COUNTIF(K$2:$K$13,G35)</f>
+        <v>0</v>
+      </c>
+      <c r="G35" s="50" t="s">
+        <v>107</v>
+      </c>
+      <c r="H35" s="48">
+        <f>SUMIFS($I$2:$I$13,$K$2:$K$13,G35)</f>
+        <v>0</v>
+      </c>
+      <c r="I35" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F36" s="44">
+        <f>COUNTIF(K$2:$K$13,G36)</f>
+        <v>0</v>
+      </c>
+      <c r="G36" s="50" t="s">
+        <v>82</v>
+      </c>
+      <c r="H36" s="48">
+        <f>SUMIFS($I$2:$I$13,$K$2:$K$13,G36)</f>
+        <v>0</v>
+      </c>
+      <c r="I36" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F37" s="44">
+        <f>COUNTIF(K$2:$K$13,G37)</f>
+        <v>0</v>
+      </c>
+      <c r="G37" s="45"/>
+      <c r="H37" s="48">
+        <f>SUMIFS($I$2:$I$13,$K$2:$K$13,G37)</f>
+        <v>0</v>
+      </c>
+      <c r="I37" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F38" s="44">
+        <f>COUNTIF(K$2:$K$13,G38)</f>
+        <v>0</v>
+      </c>
+      <c r="G38" s="45"/>
+      <c r="H38" s="48">
+        <f>SUMIFS($I$2:$I$13,$K$2:$K$13,G38)</f>
+        <v>0</v>
+      </c>
+      <c r="I38" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F39" s="44">
+        <f>COUNTIF(K$2:$K$13,G39)</f>
+        <v>0</v>
+      </c>
+      <c r="G39" s="44"/>
+      <c r="H39" s="48">
+        <f>SUMIFS($I$2:$I$13,$K$2:$K$13,G39)</f>
+        <v>0</v>
+      </c>
+      <c r="I39" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F40" s="44">
+        <f>COUNTIF(K$2:$K$13,G40)</f>
+        <v>0</v>
+      </c>
+      <c r="G40" s="44"/>
+      <c r="H40" s="48">
+        <f>SUMIFS($I$2:$I$13,$K$2:$K$13,G40)</f>
+        <v>0</v>
+      </c>
+      <c r="I40" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F41" s="44"/>
+      <c r="G41" s="44"/>
+      <c r="H41" s="48">
+        <f>SUMIFS($I$2:$I$13,$K$2:$K$13,G41)</f>
+        <v>0</v>
+      </c>
+      <c r="I41" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="F42" s="46"/>
+      <c r="I42" s="37"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="I2:I13">
+    <cfRule type="cellIs" dxfId="55" priority="3" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="4" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H20:H41">
+    <cfRule type="cellIs" dxfId="53" priority="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="2" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="5">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M44"/>
   <sheetViews>
@@ -7165,12 +9479,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M43"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection sqref="A1:K26"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7254,7 +9568,7 @@
       <c r="J2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="53" t="s">
         <v>9</v>
       </c>
       <c r="L2" s="3"/>
@@ -7292,7 +9606,7 @@
       <c r="J3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="53" t="s">
         <v>9</v>
       </c>
       <c r="L3" s="3"/>
@@ -7368,7 +9682,7 @@
       <c r="J5" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" s="53" t="s">
         <v>9</v>
       </c>
       <c r="L5" s="3"/>
@@ -8021,12 +10335,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView topLeftCell="C2" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8966,12 +11280,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView topLeftCell="C6" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9261,17 +11575,16 @@
       <c r="E8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="23" t="s">
+      <c r="F8" s="20" t="s">
         <v>95</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="36">
-        <f t="shared" si="1"/>
-        <v>34285.347600000001</v>
+        <v>0</v>
       </c>
       <c r="I8" s="11">
         <f t="shared" si="0"/>
-        <v>14467.227600000002</v>
+        <v>-19818.12</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>41</v>
@@ -9578,7 +11891,7 @@
       <c r="C23" s="3"/>
       <c r="D23" s="23">
         <f>D30/1</f>
-        <v>21.36</v>
+        <v>14.44</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="32"/>
@@ -9692,7 +12005,7 @@
       <c r="C29" s="3"/>
       <c r="D29" s="11">
         <f>SUM(I2:I10)</f>
-        <v>105828.76079999999</v>
+        <v>71543.413199999995</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="32"/>
@@ -9712,7 +12025,7 @@
       <c r="C30" s="3"/>
       <c r="D30" s="3">
         <f>D29/D25*100</f>
-        <v>21.36</v>
+        <v>14.44</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="32"/>
@@ -9764,12 +12077,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10398,12 +12711,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView topLeftCell="C2" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11115,12 +13428,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11864,668 +14177,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K34"/>
-  <sheetViews>
-    <sheetView topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="34.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="117" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>44807</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C2" s="14">
-        <v>1.91</v>
-      </c>
-      <c r="D2" s="9">
-        <v>21</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="G2" s="30"/>
-      <c r="H2" s="36">
-        <f>C2*D$30</f>
-        <v>37852.609199999999</v>
-      </c>
-      <c r="I2" s="11">
-        <f>H2-D$30</f>
-        <v>18034.4892</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>44811</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C3" s="14">
-        <v>1.95</v>
-      </c>
-      <c r="D3" s="9">
-        <v>24</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="G3" s="10"/>
-      <c r="H3" s="36">
-        <v>0</v>
-      </c>
-      <c r="I3" s="11">
-        <f t="shared" ref="I3:I5" si="0">H3-D$30</f>
-        <v>-19818.12</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>44814</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C4" s="14">
-        <v>1.9</v>
-      </c>
-      <c r="D4" s="9">
-        <v>22</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="G4" s="13"/>
-      <c r="H4" s="36">
-        <f t="shared" ref="H4:H5" si="1">C4*D$30</f>
-        <v>37654.428</v>
-      </c>
-      <c r="I4" s="11">
-        <f t="shared" si="0"/>
-        <v>17836.308000000001</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>44834</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C5" s="14">
-        <v>2</v>
-      </c>
-      <c r="D5" s="3">
-        <v>18</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="36">
-        <f t="shared" si="1"/>
-        <v>39636.239999999998</v>
-      </c>
-      <c r="I5" s="11">
-        <f t="shared" si="0"/>
-        <v>19818.12</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="2"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="2"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="38"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="2"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="2"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="2"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="2"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="2"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="2"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="2"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3">
-        <f>COUNT(D2:D9)</f>
-        <v>4</v>
-      </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="20">
-        <v>1</v>
-      </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="23">
-        <f>D19-D20</f>
-        <v>3</v>
-      </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3">
-        <f>D21/D19*100</f>
-        <v>75</v>
-      </c>
-      <c r="E22" s="5"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3">
-        <f>1/D24*100</f>
-        <v>51.546391752577328</v>
-      </c>
-      <c r="E23" s="5"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3">
-        <f>SUM(C2:C9)/COUNT(D2:D9)</f>
-        <v>1.94</v>
-      </c>
-      <c r="E24" s="5"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="23">
-        <f>D22-D23</f>
-        <v>23.453608247422672</v>
-      </c>
-      <c r="E25" s="5"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="23">
-        <f>D33/1</f>
-        <v>7.24</v>
-      </c>
-      <c r="E26" s="5"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="24">
-        <v>495453</v>
-      </c>
-      <c r="E28" s="5"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="33"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="11">
-        <f>D28/100</f>
-        <v>4954.53</v>
-      </c>
-      <c r="E29" s="5"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="33"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="11">
-        <f>D29*4</f>
-        <v>19818.12</v>
-      </c>
-      <c r="E30" s="5"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="33"/>
-      <c r="H30" s="33"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="25">
-        <f>D29*7</f>
-        <v>34681.71</v>
-      </c>
-      <c r="E31" s="5"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="33"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="11">
-        <f>SUM(I2:I9)</f>
-        <v>35870.797200000001</v>
-      </c>
-      <c r="E32" s="5"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="33"/>
-      <c r="H32" s="33"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="3"/>
-      <c r="B33" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3">
-        <f>D32/D28*100</f>
-        <v>7.24</v>
-      </c>
-      <c r="E33" s="5"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="33"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="33"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="F20:G34">
-    <cfRule type="cellIs" dxfId="14" priority="3" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="4" operator="lessThan">
-      <formula>-240.63</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="5" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I9">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>